--- a/tests/fileLevelTests/AR_comp_Design.xlsx
+++ b/tests/fileLevelTests/AR_comp_Design.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30840" windowHeight="20080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34580" windowHeight="20080" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AR_comp" sheetId="1" r:id="rId1"/>
+    <sheet name="AD_twoHit" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="39">
   <si>
     <t>AR_comp</t>
   </si>
@@ -39,9 +40,6 @@
     <t>HEALTHY:</t>
   </si>
   <si>
-    <t>Both haplotypes must be variant (at at least one of the two sites)</t>
-  </si>
-  <si>
     <t>0/0</t>
   </si>
   <si>
@@ -81,9 +79,6 @@
     <t>-phase</t>
   </si>
   <si>
-    <t>Here are some of the potential AR fits</t>
-  </si>
-  <si>
     <t>0|1</t>
   </si>
   <si>
@@ -112,13 +107,43 @@
   </si>
   <si>
     <t>HEALTHY</t>
+  </si>
+  <si>
+    <t>This is where you could add the exclusion of 0/1 0/1.....?</t>
+  </si>
+  <si>
+    <t>Both haplotypes must be variant (at least at one of the two sites)</t>
+  </si>
+  <si>
+    <t>AFFECTED: at least one haplotype carrying mutations at both sites</t>
+  </si>
+  <si>
+    <t>HEALTHY: no more than one mutated site per haplotype</t>
+  </si>
+  <si>
+    <t>Positive evidence regarding phasing</t>
+  </si>
+  <si>
+    <t>I would argue that this combination should just be called -phaseStrict</t>
+  </si>
+  <si>
+    <t>I would argue that -strict alone should not really be an option as I cannot see what to add to the AFFECTED and don't agree with the condition added to the HEALTHY.</t>
+  </si>
+  <si>
+    <t>In order to keep the number of matching sites down and downstream analysis manageable, I think we should rely on:</t>
+  </si>
+  <si>
+    <t>- Removing sites that match both the AR and AR_Comp models when looking at the AR_comp model</t>
+  </si>
+  <si>
+    <t>- Using phase information as this should be available in most trio cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +175,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -174,7 +204,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -248,22 +278,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -300,6 +343,12 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -336,6 +385,12 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,6 +577,219 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7614920" y="6357620"/>
+          <a:ext cx="246380" cy="271780"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Down Arrow 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3017520" y="5748020"/>
+          <a:ext cx="246380" cy="271780"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Down Arrow 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7868920" y="5786120"/>
+          <a:ext cx="246380" cy="271780"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Down Arrow 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2611120" y="3652520"/>
+          <a:ext cx="246380" cy="271780"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Down Arrow 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7462520" y="3690620"/>
           <a:ext cx="246380" cy="271780"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -878,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -889,6 +1157,7 @@
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="3" max="11" width="4.6640625" customWidth="1"/>
     <col min="14" max="22" width="4.6640625" customWidth="1"/>
+    <col min="24" max="24" width="68.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -909,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -922,334 +1191,341 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="N13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="4" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
       <c r="M18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="5"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="4"/>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>8</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20" t="s">
-        <v>8</v>
-      </c>
-      <c r="P20" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>8</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="5"/>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="X24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="5"/>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="5"/>
       <c r="C26" s="1"/>
       <c r="E26" s="1"/>
       <c r="G26" s="1"/>
@@ -1258,9 +1534,12 @@
       <c r="R26" s="1"/>
       <c r="T26" s="1"/>
       <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="4"/>
+      <c r="X26" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="5"/>
       <c r="C27" s="1"/>
       <c r="E27" s="1"/>
       <c r="G27" s="1"/>
@@ -1270,418 +1549,1003 @@
       <c r="T27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:24">
       <c r="A28" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>7</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>7</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="5"/>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" t="s">
+        <v>19</v>
+      </c>
+      <c r="T33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="5"/>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" t="s">
+        <v>19</v>
+      </c>
+      <c r="S34" t="s">
+        <v>7</v>
+      </c>
+      <c r="T34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" t="s">
+        <v>27</v>
+      </c>
+      <c r="X37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P39" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>7</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>19</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:V31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="3" max="11" width="4.6640625" customWidth="1"/>
+    <col min="14" max="22" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:22">
+      <c r="A3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M29" t="s">
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="5"/>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="5"/>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N29" t="s">
-        <v>7</v>
-      </c>
-      <c r="O29" t="s">
-        <v>7</v>
-      </c>
-      <c r="P29" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>9</v>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" t="s">
+        <v>6</v>
+      </c>
+      <c r="V26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>7</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="4"/>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="P30" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>8</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T30" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="4"/>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" t="s">
-        <v>8</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33" t="s">
-        <v>21</v>
-      </c>
-      <c r="T33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="4"/>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" t="s">
-        <v>8</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" t="s">
-        <v>21</v>
-      </c>
-      <c r="S34" t="s">
-        <v>8</v>
-      </c>
-      <c r="T34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M38" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" t="s">
-        <v>7</v>
-      </c>
-      <c r="O38" t="s">
-        <v>7</v>
-      </c>
-      <c r="P38" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>8</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" t="s">
-        <v>7</v>
-      </c>
-      <c r="M39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" t="s">
-        <v>7</v>
-      </c>
-      <c r="O39" t="s">
-        <v>8</v>
-      </c>
-      <c r="P39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>8</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="E42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>21</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="E43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>21</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>8</v>
+      <c r="E31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
